--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T14:41:09+00:00</t>
+    <t>2025-10-23T09:05:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T09:05:48+00:00</t>
+    <t>2025-10-27T10:36:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T10:36:37+00:00</t>
+    <t>2025-10-30T10:02:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T10:02:42+00:00</t>
+    <t>2025-10-30T10:05:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T10:05:12+00:00</t>
+    <t>2025-10-30T11:02:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T11:02:24+00:00</t>
+    <t>2025-10-31T12:12:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-31T12:12:50+00:00</t>
+    <t>2025-11-03T16:51:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://testSK.org/StructureDefinition/patient-age-gender-snomed-profile</t>
+    <t>http://tecnomod-um.org/StructureDefinition/patient-age-gender-snomed-profile</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T16:51:09+00:00</t>
+    <t>2025-11-06T10:00:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>UMU (http://testSK.org/umu)</t>
+    <t>UMU (http://tecnomod-um.org)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -476,7 +476,7 @@
     <t>age</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://testSK.org/StructureDefinition/patient-age-ext}
+    <t xml:space="preserve">Extension {http://tecnomod-um.org/StructureDefinition/patient-age-ext}
 </t>
   </si>
   <si>
@@ -492,7 +492,7 @@
     <t>gender-sct</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://testSK.org/StructureDefinition/gender-snomed-ext}
+    <t xml:space="preserve">Extension {http://tecnomod-um.org/StructureDefinition/gender-snomed-ext}
 </t>
   </si>
   <si>
@@ -1592,7 +1592,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="56.515625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="61.52734375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-06T10:00:48+00:00</t>
+    <t>2025-11-18T09:01:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T09:01:12+00:00</t>
+    <t>2025-11-18T09:36:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T09:36:46+00:00</t>
+    <t>2025-11-18T09:43:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T09:43:16+00:00</t>
+    <t>2025-11-18T10:05:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T10:05:08+00:00</t>
+    <t>2025-11-18T10:22:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T10:22:08+00:00</t>
+    <t>2025-11-18T10:33:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T10:33:59+00:00</t>
+    <t>2025-11-18T10:41:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T10:41:07+00:00</t>
+    <t>2025-11-18T10:43:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T10:43:22+00:00</t>
+    <t>2025-11-18T10:45:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T10:45:59+00:00</t>
+    <t>2025-11-18T10:58:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T10:58:35+00:00</t>
+    <t>2025-11-18T11:10:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T11:10:00+00:00</t>
+    <t>2025-11-18T11:17:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T11:17:36+00:00</t>
+    <t>2025-11-18T11:44:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T11:44:59+00:00</t>
+    <t>2025-11-18T11:54:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://tecnomod-um.org/StructureDefinition/patient-age-gender-snomed-profile</t>
+    <t>http://tecnomod-um.org/ImplementationGuide/RES-Q-FHIR-IG/StructureDefinition/patient-age-gender-snomed-profile</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T11:54:03+00:00</t>
+    <t>2025-11-19T08:51:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -476,7 +476,7 @@
     <t>age</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://tecnomod-um.org/StructureDefinition/patient-age-ext}
+    <t xml:space="preserve">Extension {http://tecnomod-um.org/ImplementationGuide/RES-Q-FHIR-IG/StructureDefinition/patient-age-ext}
 </t>
   </si>
   <si>
@@ -492,7 +492,7 @@
     <t>gender-sct</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://tecnomod-um.org/StructureDefinition/gender-snomed-ext}
+    <t xml:space="preserve">Extension {http://tecnomod-um.org/ImplementationGuide/RES-Q-FHIR-IG/StructureDefinition/gender-snomed-ext}
 </t>
   </si>
   <si>
@@ -1592,7 +1592,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="61.52734375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="91.02734375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://tecnomod-um.org/ImplementationGuide/RES-Q-FHIR-IG/StructureDefinition/patient-age-gender-snomed-profile</t>
+    <t>http://tecnomod-um.org/StructureDefinition/patient-age-gender-snomed-profile</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T08:51:11+00:00</t>
+    <t>2025-11-19T08:58:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -476,7 +476,7 @@
     <t>age</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://tecnomod-um.org/ImplementationGuide/RES-Q-FHIR-IG/StructureDefinition/patient-age-ext}
+    <t xml:space="preserve">Extension {http://tecnomod-um.org/StructureDefinition/patient-age-ext}
 </t>
   </si>
   <si>
@@ -492,7 +492,7 @@
     <t>gender-sct</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://tecnomod-um.org/ImplementationGuide/RES-Q-FHIR-IG/StructureDefinition/gender-snomed-ext}
+    <t xml:space="preserve">Extension {http://tecnomod-um.org/StructureDefinition/gender-snomed-ext}
 </t>
   </si>
   <si>
@@ -1592,7 +1592,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="91.02734375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="61.52734375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://tecnomod-um.org/StructureDefinition/patient-age-gender-snomed-profile</t>
+    <t>http://tecnomod-um.org/ImplementationGuide/RES-Q-FHIR-IG/StructureDefinition/patient-age-gender-snomed-profile</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T08:58:25+00:00</t>
+    <t>2025-11-19T09:26:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -476,7 +476,7 @@
     <t>age</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://tecnomod-um.org/StructureDefinition/patient-age-ext}
+    <t xml:space="preserve">Extension {http://tecnomod-um.org/ImplementationGuide/RES-Q-FHIR-IG/StructureDefinition/patient-age-ext}
 </t>
   </si>
   <si>
@@ -492,7 +492,7 @@
     <t>gender-sct</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://tecnomod-um.org/StructureDefinition/gender-snomed-ext}
+    <t xml:space="preserve">Extension {http://tecnomod-um.org/ImplementationGuide/RES-Q-FHIR-IG/StructureDefinition/gender-snomed-ext}
 </t>
   </si>
   <si>
@@ -1592,7 +1592,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="61.52734375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="91.02734375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://tecnomod-um.org/ImplementationGuide/RES-Q-FHIR-IG/StructureDefinition/patient-age-gender-snomed-profile</t>
+    <t>http://tecnomod-um.org/StructureDefinition/patient-age-gender-snomed-profile</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T09:26:24+00:00</t>
+    <t>2025-11-19T10:08:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -476,7 +476,7 @@
     <t>age</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://tecnomod-um.org/ImplementationGuide/RES-Q-FHIR-IG/StructureDefinition/patient-age-ext}
+    <t xml:space="preserve">Extension {http://tecnomod-um.org/StructureDefinition/patient-age-ext}
 </t>
   </si>
   <si>
@@ -492,7 +492,7 @@
     <t>gender-sct</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://tecnomod-um.org/ImplementationGuide/RES-Q-FHIR-IG/StructureDefinition/gender-snomed-ext}
+    <t xml:space="preserve">Extension {http://tecnomod-um.org/StructureDefinition/gender-snomed-ext}
 </t>
   </si>
   <si>
@@ -1592,7 +1592,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="91.02734375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="61.52734375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
